--- a/file/TGE-421-YilanBandB.xlsx
+++ b/file/TGE-421-YilanBandB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A12216-E25F-164E-B3B3-04B8478C03BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677B5747-2125-754D-B29D-588622016A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="6280" windowWidth="30560" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="16860" yWindow="6300" windowWidth="30560" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="171">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花蓮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
@@ -105,6 +101,546 @@
   </si>
   <si>
     <t>Star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Sunday Home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調色盤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>質感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小隱日光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法國小古堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英國小古堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涓久川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏米去散步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神之島</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水月星賞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上萊茵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景觀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真情非凡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好望角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庭園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涵之谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希格瑪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水舞間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水岸楓林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠岸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大好親水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾德堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北方札特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壯圍張宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sunday-home.com.tw/</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-03.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-04.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-05.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-06.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-07.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-08.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-09.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-10.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-11.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-12.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-13.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-14.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-15.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-16.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-17.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-18.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-19.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-21.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-22.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-23.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-24.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4211-YilanBandB-25.jpg</t>
+  </si>
+  <si>
+    <t>宜蘭縣三星鄉大埔二路327號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0919-902399　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星鄉</t>
+  </si>
+  <si>
+    <t>三星鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+宜蘭縣羅東鎮復興路二段261巷75弄26號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0913006559</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lapalette.tw/?fbclid=IwAR24__-6Ad3MHQ-NFzT0SS_vTPhL38XN-NcjznOU_a91WBNiqEUclCF5Vvk</t>
+  </si>
+  <si>
+    <t>羅東鎮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sunbeamhideaway.com/?fbclid=IwAR31ocHligJraZjWWGLOpdAGpSArmgKdtcqCpuDClEwTKmXeNlYN95e_s6M</t>
+  </si>
+  <si>
+    <t>宜兰县罗东镇四维路152巷13号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chateau.tw/?fbclid=IwAR1mooeUZosMA67VR6Ry2faZ4_p6tvL0F9P8ATzoNxPDDvoxPCpZHEIyHh0</t>
+  </si>
+  <si>
+    <t>宜蘭縣五結鄉孝威二路155號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0979-776857 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.englandcastle.tw/about.html</t>
+  </si>
+  <si>
+    <t>宜蘭縣五結鄉大吉二路465號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0988-550387 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.itwhotel.com.tw/yilanhotel/nice/</t>
+  </si>
+  <si>
+    <t>宜蘭縣冬山鄉鹿得五路356號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0963-776895</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chamilbnb.tw/</t>
+  </si>
+  <si>
+    <t>宜蘭縣羅東鎮復興路三段456巷68號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0970-335009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0909-778890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.godisland.tw/?fbclid=IwAR2nWQmuoNSJdGWpGxnh9T-b8TN7eyZ79aHzIj4Uigwaz2KnA5g1OuEDUxk</t>
+  </si>
+  <si>
+    <t>0978-003680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣冬山鄉珍珠村幸福六路20號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬山鄉</t>
+  </si>
+  <si>
+    <t>五結鄉</t>
+  </si>
+  <si>
+    <t>https://twstay.com/RWD2/index.aspx?BNB=wmsa1313</t>
+  </si>
+  <si>
+    <t>宜蘭縣冬山鄉永興路一段162巷26號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0933-503720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.haut-rhin.tw/</t>
+  </si>
+  <si>
+    <t>宜蘭縣壯圍鄉大福路2段256巷70弄31號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0919-305-853</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壯圍鄉</t>
+  </si>
+  <si>
+    <t>壯圍鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.juststay.com.tw/</t>
+  </si>
+  <si>
+    <t>宜蘭縣冬山鄉珍珠村幸福六路150號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0966-508150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sealuv.com.tw/Page/Home/Index.aspx</t>
+  </si>
+  <si>
+    <t>宜蘭縣頭城鎮濱海路二段70號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0910-259 680 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭城鎮</t>
+  </si>
+  <si>
+    <t>http://www.hwjhouse.com.tw/</t>
+  </si>
+  <si>
+    <t>宜蘭縣 大同鄉松羅村玉蘭46號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-9801278</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大同鄉</t>
+  </si>
+  <si>
+    <t>http://www.river389.com/</t>
+  </si>
+  <si>
+    <t>宜蘭縣冬山鄉安農路389號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0978-569389</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣三星鄉大坑路8之3號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0982-039973</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://yilan.fun-taiwan.com/HouseDetailView.aspx?hid=001-i155</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/han0905817555/</t>
+  </si>
+  <si>
+    <t>0905-817555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣三星鄉下湖23之12號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sigmacastle.tw/</t>
+  </si>
+  <si>
+    <t>宜蘭縣員山鄉深福路236號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員山鄉</t>
+  </si>
+  <si>
+    <t>https://www.waterdance.com.tw/</t>
+  </si>
+  <si>
+    <t>宜蘭縣冬山鄉水井一路92號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0921-795-021 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0987-275 539</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.maplehouse.com.tw/</t>
+  </si>
+  <si>
+    <t>宜蘭縣冬山鄉八仙一路22號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-9508333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://twstay.com/RWD1/index.aspx?BNB=lyuan</t>
+  </si>
+  <si>
+    <t>宜蘭縣冬山鄉大進二路66號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0966-501337</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dahouvilla.com.tw/</t>
+  </si>
+  <si>
+    <t>宜蘭縣五結鄉協和村親河路一段180巷30號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0937-161313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.soffner.com.tw/</t>
+  </si>
+  <si>
+    <t>宜蘭縣礁溪鄉柴圍路78-5號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礁溪鄉</t>
+  </si>
+  <si>
+    <t>0958-931-708</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.northzart.com.tw/</t>
+  </si>
+  <si>
+    <t>宜蘭縣冬山鄉廣安村廣興路682巷132號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0918612581 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chang-house.com/</t>
+  </si>
+  <si>
+    <t>03-9307565</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣壯圍鄉過嶺村過嶺路1巷36號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,9 +648,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="&quot;NT$&quot;#,##0_);\(&quot;NT$&quot;#,##0\)"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -185,7 +718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,13 +1036,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -518,16 +1051,17 @@
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" customWidth="1"/>
-    <col min="7" max="7" width="34.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17" style="2" customWidth="1"/>
-    <col min="9" max="9" width="37" customWidth="1"/>
-    <col min="10" max="10" width="62.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="34.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17" style="2" customWidth="1"/>
+    <col min="10" max="10" width="37" customWidth="1"/>
+    <col min="11" max="11" width="62.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16">
+    <row r="1" spans="1:11" ht="16">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -541,125 +1075,796 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6">
+        <v>3600</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="48">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4200</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6">
+        <v>4300</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="6">
+        <v>6800</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6">
+        <v>5800</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4600</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6">
+        <v>2980</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2500</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="I10" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6">
+        <v>3800</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="32">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2800</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="6">
+        <v>4140</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3200</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="6">
+        <v>3000</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="6">
+        <v>4200</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2800</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="6">
+        <v>3200</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="6">
+        <v>3200</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="6">
+        <v>5400</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="6">
+        <v>3500</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="32">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="6">
+        <v>3600</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="6">
+        <v>2500</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="32">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="6">
+        <v>3600</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="6">
+        <v>3800</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
